--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/20/seed1/result_data_RandomForest.xlsx
@@ -502,10 +502,10 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.21910000000001</v>
+        <v>-14.29920000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.537600000000003</v>
+        <v>-8.582399999999998</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.515399999999998</v>
+        <v>-8.577999999999998</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -536,10 +536,10 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.8719</v>
+        <v>-11.6755</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.289299999999995</v>
+        <v>-8.210099999999999</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.2015</v>
+        <v>-12.006</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -570,10 +570,10 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.0609</v>
+        <v>-12.0604</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.492699999999996</v>
+        <v>-8.046499999999998</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -706,10 +706,10 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.6233</v>
+        <v>-11.6387</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.325800000000005</v>
+        <v>-8.076200000000005</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.4909</v>
+        <v>-14.4487</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.94810000000001</v>
+        <v>-12.97260000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.922199999999999</v>
+        <v>-7.964499999999997</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
